--- a/Code/Results/Cases/Case_8_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_50/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.541297913230835</v>
+        <v>2.45759951826534</v>
       </c>
       <c r="C2">
-        <v>0.4568180820244265</v>
+        <v>0.4903156356308784</v>
       </c>
       <c r="D2">
-        <v>0.04688903445371295</v>
+        <v>0.04880312810394827</v>
       </c>
       <c r="E2">
-        <v>0.06890041029201655</v>
+        <v>0.06764045216683634</v>
       </c>
       <c r="F2">
-        <v>0.6100859231228313</v>
+        <v>0.5664167889917167</v>
       </c>
       <c r="G2">
-        <v>0.0007972003958645615</v>
+        <v>5.010361305696209E-05</v>
       </c>
       <c r="H2">
-        <v>5.210952397072255E-05</v>
+        <v>0.0001672187828749561</v>
       </c>
       <c r="I2">
-        <v>0.0006319398044687397</v>
+        <v>0.001017123251730645</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3524878349945908</v>
+        <v>0.3134384873643192</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1681730707915357</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.07813427387329241</v>
       </c>
       <c r="N2">
-        <v>0.3455126266583051</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8154183581865837</v>
+        <v>0.3539326569560757</v>
       </c>
       <c r="Q2">
-        <v>1.812974535013154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.8246841690577256</v>
+      </c>
+      <c r="S2">
+        <v>1.656588111907155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.214428656301891</v>
+        <v>2.147765936109749</v>
       </c>
       <c r="C3">
-        <v>0.4108803574965521</v>
+        <v>0.4388087872382584</v>
       </c>
       <c r="D3">
-        <v>0.04239455122807811</v>
+        <v>0.04338639548870304</v>
       </c>
       <c r="E3">
-        <v>0.0650649721664216</v>
+        <v>0.06487991102935098</v>
       </c>
       <c r="F3">
-        <v>0.5627620553630734</v>
+        <v>0.5227822056983626</v>
       </c>
       <c r="G3">
-        <v>0.0008003855261276263</v>
+        <v>0.0004695964419737103</v>
       </c>
       <c r="H3">
-        <v>3.33564504837458E-05</v>
+        <v>2.491316230202045E-06</v>
       </c>
       <c r="I3">
-        <v>0.0004170203854769738</v>
+        <v>0.0006280595511585219</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3457947585983057</v>
+        <v>0.3088867772565465</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1714771591593234</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.07260066219788719</v>
       </c>
       <c r="N3">
-        <v>0.3049963053806835</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8231041523789031</v>
+        <v>0.3129664185079406</v>
       </c>
       <c r="Q3">
-        <v>1.700394548241889</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.8228768466258671</v>
+      </c>
+      <c r="S3">
+        <v>1.554259470884489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.013019021091225</v>
+        <v>1.956409759163535</v>
       </c>
       <c r="C4">
-        <v>0.3827611424836874</v>
+        <v>0.4073734088657659</v>
       </c>
       <c r="D4">
-        <v>0.03963383810060606</v>
+        <v>0.04007070483311992</v>
       </c>
       <c r="E4">
-        <v>0.06267720410358635</v>
+        <v>0.06315129398304187</v>
       </c>
       <c r="F4">
-        <v>0.5342161844330633</v>
+        <v>0.4962271068446071</v>
       </c>
       <c r="G4">
-        <v>0.0008024131639813716</v>
+        <v>0.0009580317501676847</v>
       </c>
       <c r="H4">
-        <v>0.0001973459795219235</v>
+        <v>3.199318320001865E-05</v>
       </c>
       <c r="I4">
-        <v>0.0004849908655004675</v>
+        <v>0.0005329592782183923</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3419287962326329</v>
+        <v>0.306181152966051</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1735235917163003</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0697595779721194</v>
       </c>
       <c r="N4">
-        <v>0.2801382631109561</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8285014137125941</v>
+        <v>0.2878351171897009</v>
       </c>
       <c r="Q4">
-        <v>1.632768421422412</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.8224739833055281</v>
+      </c>
+      <c r="S4">
+        <v>1.491994835977096</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.9295966562091</v>
+        <v>1.877006640882058</v>
       </c>
       <c r="C5">
-        <v>0.3717717186544007</v>
+        <v>0.3950879421629736</v>
       </c>
       <c r="D5">
-        <v>0.03854867776711046</v>
+        <v>0.03876397483340099</v>
       </c>
       <c r="E5">
-        <v>0.06165765116571187</v>
+        <v>0.06240284559826748</v>
       </c>
       <c r="F5">
-        <v>0.5222337882537929</v>
+        <v>0.4850020380809141</v>
       </c>
       <c r="G5">
-        <v>0.0008032628105727468</v>
+        <v>0.00121387034677941</v>
       </c>
       <c r="H5">
-        <v>0.0003067728799694969</v>
+        <v>7.552839048585724E-05</v>
       </c>
       <c r="I5">
-        <v>0.0006272251256387307</v>
+        <v>0.0006065128024168587</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3400423015269816</v>
+        <v>0.3047534571259476</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1741917328727176</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.06864923893500396</v>
       </c>
       <c r="N5">
-        <v>0.2700719724266207</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8311723345692812</v>
+        <v>0.2776594046166991</v>
       </c>
       <c r="Q5">
-        <v>1.603967217358445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.8228231287013514</v>
+      </c>
+      <c r="S5">
+        <v>1.465204398221232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.914311367505292</v>
+        <v>1.862407318781294</v>
       </c>
       <c r="C6">
-        <v>0.3705031463002086</v>
+        <v>0.3936407840093636</v>
       </c>
       <c r="D6">
-        <v>0.03841804954183203</v>
+        <v>0.03859896238311933</v>
       </c>
       <c r="E6">
-        <v>0.06144171475112969</v>
+        <v>0.06223493775345368</v>
       </c>
       <c r="F6">
-        <v>0.5196769272778283</v>
+        <v>0.4825820689214453</v>
       </c>
       <c r="G6">
-        <v>0.0008034111636686839</v>
+        <v>0.001261704165223761</v>
       </c>
       <c r="H6">
-        <v>0.0003283585206113049</v>
+        <v>8.504532162101341E-05</v>
       </c>
       <c r="I6">
-        <v>0.0007427922014944244</v>
+        <v>0.0007249787015632947</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3392812519893837</v>
+        <v>0.3040953996818274</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1740957327583814</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.06836097340260139</v>
       </c>
       <c r="N6">
-        <v>0.268475744539856</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8320021436048464</v>
+        <v>0.2760458239232122</v>
       </c>
       <c r="Q6">
-        <v>1.597254419102626</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.8233098525685207</v>
+      </c>
+      <c r="S6">
+        <v>1.458875582327039</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.007997770553175</v>
+        <v>1.946951888367153</v>
       </c>
       <c r="C7">
-        <v>0.3841344432778868</v>
+        <v>0.4068754943817225</v>
       </c>
       <c r="D7">
-        <v>0.03975521462929521</v>
+        <v>0.04049432391507679</v>
       </c>
       <c r="E7">
-        <v>0.06253772569203875</v>
+        <v>0.06310471014380248</v>
       </c>
       <c r="F7">
-        <v>0.5324840564699116</v>
+        <v>0.4914119866919719</v>
       </c>
       <c r="G7">
-        <v>0.0008024410840804519</v>
+        <v>0.001167131511493391</v>
       </c>
       <c r="H7">
-        <v>0.0002005862640968026</v>
+        <v>3.42324906354996E-05</v>
       </c>
       <c r="I7">
-        <v>0.0007144997039336687</v>
+        <v>0.0007998430187567962</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3406706802356148</v>
+        <v>0.3036523550170251</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1723293226668581</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.06904798845721949</v>
       </c>
       <c r="N7">
-        <v>0.2802086280888574</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.829579442048562</v>
+        <v>0.2875937384431779</v>
       </c>
       <c r="Q7">
-        <v>1.627045353684338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.8250426237853503</v>
+      </c>
+      <c r="S7">
+        <v>1.47592405073064</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.423523135057337</v>
+        <v>2.33059460814377</v>
       </c>
       <c r="C8">
-        <v>0.4429945985330619</v>
+        <v>0.4681095349915552</v>
       </c>
       <c r="D8">
-        <v>0.04552181908142217</v>
+        <v>0.04814412400728685</v>
       </c>
       <c r="E8">
-        <v>0.06741863807022064</v>
+        <v>0.06681558088975414</v>
       </c>
       <c r="F8">
-        <v>0.5915725760686144</v>
+        <v>0.5388987186087135</v>
       </c>
       <c r="G8">
-        <v>0.0007983045097050312</v>
+        <v>0.001526562696493983</v>
       </c>
       <c r="H8">
-        <v>7.362606826211149E-06</v>
+        <v>7.578841078026421E-05</v>
       </c>
       <c r="I8">
-        <v>0.0007851953246547083</v>
+        <v>0.001160062257114625</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3484992102419824</v>
+        <v>0.305900125194718</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1666799257081877</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.07423441603250147</v>
       </c>
       <c r="N8">
-        <v>0.3318128152205588</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8193694658710555</v>
+        <v>0.3390356769780993</v>
       </c>
       <c r="Q8">
-        <v>1.766758513612103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.830505993393146</v>
+      </c>
+      <c r="S8">
+        <v>1.579481175502536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.24014645765925</v>
+        <v>3.097587953749496</v>
       </c>
       <c r="C9">
-        <v>0.5565979691104701</v>
+        <v>0.5939799817587357</v>
       </c>
       <c r="D9">
-        <v>0.05658970284322606</v>
+        <v>0.06188988339331303</v>
       </c>
       <c r="E9">
-        <v>0.07698053664591242</v>
+        <v>0.07374791619753829</v>
       </c>
       <c r="F9">
-        <v>0.7147491669300479</v>
+        <v>0.6482323461910156</v>
       </c>
       <c r="G9">
-        <v>0.000790725553188841</v>
+        <v>0.001997490306149707</v>
       </c>
       <c r="H9">
-        <v>0.00113132883992173</v>
+        <v>0.001269003466755625</v>
       </c>
       <c r="I9">
-        <v>0.002296063471661114</v>
+        <v>0.002685597675260887</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3681316812898885</v>
+        <v>0.3180310045100576</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1589984193925567</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.09086680927422108</v>
       </c>
       <c r="N9">
-        <v>0.432914847882472</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8029911560442287</v>
+        <v>0.4409392179211267</v>
       </c>
       <c r="Q9">
-        <v>2.063374752453512</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.8396831989491247</v>
+      </c>
+      <c r="S9">
+        <v>1.835013240023471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.816950737351135</v>
+        <v>3.610093253910748</v>
       </c>
       <c r="C10">
-        <v>0.6466804715377634</v>
+        <v>0.6811349605443695</v>
       </c>
       <c r="D10">
-        <v>0.06556457366998103</v>
+        <v>0.07482660189813117</v>
       </c>
       <c r="E10">
-        <v>0.08088016708805768</v>
+        <v>0.07643227062755109</v>
       </c>
       <c r="F10">
-        <v>0.7997750746162779</v>
+        <v>0.7043267238364166</v>
       </c>
       <c r="G10">
-        <v>0.0007855773658334433</v>
+        <v>0.01053099941342239</v>
       </c>
       <c r="H10">
-        <v>0.003071429210402599</v>
+        <v>0.002942399612339219</v>
       </c>
       <c r="I10">
-        <v>0.004682227278660633</v>
+        <v>0.00469104930797215</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3779670906895518</v>
+        <v>0.3151390219974921</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1490579906468135</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1008670491809696</v>
       </c>
       <c r="N10">
-        <v>0.4875433316100555</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8010455335586926</v>
+        <v>0.4940137924756698</v>
       </c>
       <c r="Q10">
-        <v>2.261228751104795</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.8671994798859401</v>
+      </c>
+      <c r="S10">
+        <v>1.940684859153833</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.909920192171001</v>
+        <v>3.645750978040326</v>
       </c>
       <c r="C11">
-        <v>0.7353936066338349</v>
+        <v>0.7429138969788482</v>
       </c>
       <c r="D11">
-        <v>0.07681026846923089</v>
+        <v>0.09180111336683439</v>
       </c>
       <c r="E11">
-        <v>0.06345014888936884</v>
+        <v>0.06054153812008156</v>
       </c>
       <c r="F11">
-        <v>0.7672402744789082</v>
+        <v>0.638641482476487</v>
       </c>
       <c r="G11">
-        <v>0.0007840262684939591</v>
+        <v>0.04430424950434642</v>
       </c>
       <c r="H11">
-        <v>0.02156488834774706</v>
+        <v>0.02127224107936598</v>
       </c>
       <c r="I11">
-        <v>0.005874387980179918</v>
+        <v>0.005697194013987605</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3351538035164836</v>
+        <v>0.265383989908397</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.128166771823139</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.08552147703042934</v>
       </c>
       <c r="N11">
-        <v>0.3527149735632804</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8584386232800227</v>
+        <v>0.3542489344296627</v>
       </c>
       <c r="Q11">
-        <v>2.11256119586389</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.9630752025504279</v>
+      </c>
+      <c r="S11">
+        <v>1.690112103980255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.870654680794416</v>
+        <v>3.589376006130294</v>
       </c>
       <c r="C12">
-        <v>0.7916293342058509</v>
+        <v>0.7826856419554815</v>
       </c>
       <c r="D12">
-        <v>0.08474086262884839</v>
+        <v>0.1027349013352179</v>
       </c>
       <c r="E12">
-        <v>0.05703170584503636</v>
+        <v>0.05458591562923804</v>
       </c>
       <c r="F12">
-        <v>0.7242507905135085</v>
+        <v>0.5861505301397472</v>
       </c>
       <c r="G12">
-        <v>0.0007837001752211381</v>
+        <v>0.06854694983495335</v>
       </c>
       <c r="H12">
-        <v>0.05998236527071299</v>
+        <v>0.05965979984547687</v>
       </c>
       <c r="I12">
-        <v>0.005961384353131649</v>
+        <v>0.005702326339100949</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3006640015522848</v>
+        <v>0.2331283306927503</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1162135156234889</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.07363822425558553</v>
       </c>
       <c r="N12">
-        <v>0.2467825935112558</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9119889036514195</v>
+        <v>0.2463334772481431</v>
       </c>
       <c r="Q12">
-        <v>1.955747683710229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.037678128828873</v>
+      </c>
+      <c r="S12">
+        <v>1.508975265990784</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.721476667937964</v>
+        <v>3.464741471103935</v>
       </c>
       <c r="C13">
-        <v>0.8279284386794927</v>
+        <v>0.8165991108742503</v>
       </c>
       <c r="D13">
-        <v>0.09070726540561225</v>
+        <v>0.1082707289976526</v>
       </c>
       <c r="E13">
-        <v>0.05834141412733551</v>
+        <v>0.05618961409609291</v>
       </c>
       <c r="F13">
-        <v>0.6681826314588761</v>
+        <v>0.5438479387368389</v>
       </c>
       <c r="G13">
-        <v>0.0007843196602079568</v>
+        <v>0.06247886528558411</v>
       </c>
       <c r="H13">
-        <v>0.11529287533466</v>
+        <v>0.1150430326844116</v>
       </c>
       <c r="I13">
-        <v>0.005502764098206825</v>
+        <v>0.005347239164283479</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2686183410765075</v>
+        <v>0.2113928837972168</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1092447182331178</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.06396823402152663</v>
       </c>
       <c r="N13">
-        <v>0.1577407812722527</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9661777039739832</v>
+        <v>0.1572900795367929</v>
       </c>
       <c r="Q13">
-        <v>1.775097458614198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.091241768302879</v>
+      </c>
+      <c r="S13">
+        <v>1.377671008860148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.566811813372397</v>
+        <v>3.344862279243159</v>
       </c>
       <c r="C14">
-        <v>0.8449133347942848</v>
+        <v>0.8386115793129534</v>
       </c>
       <c r="D14">
-        <v>0.09406362543688829</v>
+        <v>0.1096593866690938</v>
       </c>
       <c r="E14">
-        <v>0.06385674642088546</v>
+        <v>0.06216192151692823</v>
       </c>
       <c r="F14">
-        <v>0.6229826139945658</v>
+        <v>0.517508483620567</v>
       </c>
       <c r="G14">
-        <v>0.0007851818824923348</v>
+        <v>0.04564845547324481</v>
       </c>
       <c r="H14">
-        <v>0.1642773042045604</v>
+        <v>0.1641112228859498</v>
       </c>
       <c r="I14">
-        <v>0.005035465457335242</v>
+        <v>0.005036576064773257</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2474389768867127</v>
+        <v>0.2000235121606373</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1061020644050448</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.05804115089305384</v>
       </c>
       <c r="N14">
-        <v>0.1062519118218148</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1.005131241804492</v>
+        <v>0.1063032062982856</v>
       </c>
       <c r="Q14">
-        <v>1.637982595678295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.11879021346796</v>
+      </c>
+      <c r="S14">
+        <v>1.303207724587992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.504742799182623</v>
+        <v>3.298858996292154</v>
       </c>
       <c r="C15">
-        <v>0.8450903971299795</v>
+        <v>0.842987825615154</v>
       </c>
       <c r="D15">
-        <v>0.09444696911532446</v>
+        <v>0.1088593540656717</v>
       </c>
       <c r="E15">
-        <v>0.06567734650049317</v>
+        <v>0.0642739006476436</v>
       </c>
       <c r="F15">
-        <v>0.6087239834417204</v>
+        <v>0.5118094926288563</v>
       </c>
       <c r="G15">
-        <v>0.0007856091595125696</v>
+        <v>0.03716634566146837</v>
       </c>
       <c r="H15">
-        <v>0.1766295181018336</v>
+        <v>0.1765009267945175</v>
       </c>
       <c r="I15">
-        <v>0.004916156895836465</v>
+        <v>0.005009586455498649</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2422655587530684</v>
+        <v>0.1984097427955049</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1059191703899209</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.05673633488687102</v>
       </c>
       <c r="N15">
-        <v>0.09490360531026454</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1.01441750363449</v>
+        <v>0.09524529550643024</v>
       </c>
       <c r="Q15">
-        <v>1.597726220349955</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.120722266397763</v>
+      </c>
+      <c r="S15">
+        <v>1.290334534922465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.288202894941207</v>
+        <v>3.145828254529476</v>
       </c>
       <c r="C16">
-        <v>0.7983081438323154</v>
+        <v>0.8200792794814333</v>
       </c>
       <c r="D16">
-        <v>0.08922145729340514</v>
+        <v>0.09795443109430835</v>
       </c>
       <c r="E16">
-        <v>0.06358004395984196</v>
+        <v>0.0635551753298369</v>
       </c>
       <c r="F16">
-        <v>0.5830368936815162</v>
+        <v>0.5194946172521711</v>
       </c>
       <c r="G16">
-        <v>0.0007876810079615115</v>
+        <v>0.00884085297006898</v>
       </c>
       <c r="H16">
-        <v>0.1631304417790744</v>
+        <v>0.163147185851841</v>
       </c>
       <c r="I16">
-        <v>0.004048524088457128</v>
+        <v>0.00443639449810096</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.244065907444714</v>
+        <v>0.210395149058801</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1121116487118652</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.05825469506413761</v>
       </c>
       <c r="N16">
-        <v>0.09234334473025996</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1.001203028997978</v>
+        <v>0.09431182811599825</v>
       </c>
       <c r="Q16">
-        <v>1.547791799378018</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.070416662150194</v>
+      </c>
+      <c r="S16">
+        <v>1.343267298884797</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.203860989777525</v>
+        <v>3.084845125984202</v>
       </c>
       <c r="C17">
-        <v>0.753574530410333</v>
+        <v>0.7864670320152527</v>
       </c>
       <c r="D17">
-        <v>0.08343960462558897</v>
+        <v>0.0897847151424358</v>
       </c>
       <c r="E17">
-        <v>0.05827164626536785</v>
+        <v>0.05855148727610615</v>
       </c>
       <c r="F17">
-        <v>0.587259456433074</v>
+        <v>0.5359809493350909</v>
       </c>
       <c r="G17">
-        <v>0.0007888199498083615</v>
+        <v>0.002803162147955618</v>
       </c>
       <c r="H17">
-        <v>0.1249691682964738</v>
+        <v>0.1250366984573787</v>
       </c>
       <c r="I17">
-        <v>0.003670044109901127</v>
+        <v>0.004180087704271251</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2564673138514486</v>
+        <v>0.2251255453722223</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1187734800649149</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.0620365717786413</v>
       </c>
       <c r="N17">
-        <v>0.115495357891767</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9706553089361876</v>
+        <v>0.118632534327638</v>
       </c>
       <c r="Q17">
-        <v>1.581774852834741</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.023554999010827</v>
+      </c>
+      <c r="S17">
+        <v>1.413920844943533</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.226231978194335</v>
+        <v>3.109514049783229</v>
       </c>
       <c r="C18">
-        <v>0.7050361104448939</v>
+        <v>0.7442181191483428</v>
       </c>
       <c r="D18">
-        <v>0.07659845642606911</v>
+        <v>0.08205265893170122</v>
       </c>
       <c r="E18">
-        <v>0.05388128160586669</v>
+        <v>0.05356927009239909</v>
       </c>
       <c r="F18">
-        <v>0.6190013339414691</v>
+        <v>0.5694274092178659</v>
       </c>
       <c r="G18">
-        <v>0.0007892289400857303</v>
+        <v>0.00143769120765036</v>
       </c>
       <c r="H18">
-        <v>0.07209603172691459</v>
+        <v>0.07218098409464346</v>
       </c>
       <c r="I18">
-        <v>0.003352672330969142</v>
+        <v>0.003853071525528051</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.281184436180606</v>
+        <v>0.2474762071927188</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1278647378629394</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.06951501366224733</v>
       </c>
       <c r="N18">
-        <v>0.1733412141699944</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9230451586326325</v>
+        <v>0.177867959084594</v>
       </c>
       <c r="Q18">
-        <v>1.697261022720085</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.9690714916093839</v>
+      </c>
+      <c r="S18">
+        <v>1.532449225120359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.325515999373295</v>
+        <v>3.198360960716059</v>
       </c>
       <c r="C19">
-        <v>0.6619182088028879</v>
+        <v>0.7051711806760466</v>
       </c>
       <c r="D19">
-        <v>0.07003267768637755</v>
+        <v>0.07540693390228626</v>
       </c>
       <c r="E19">
-        <v>0.05691531023279417</v>
+        <v>0.05529028668780578</v>
       </c>
       <c r="F19">
-        <v>0.6686220922129777</v>
+        <v>0.6145821396798965</v>
       </c>
       <c r="G19">
-        <v>0.0007889962586007218</v>
+        <v>0.001269746816474182</v>
       </c>
       <c r="H19">
-        <v>0.02716982696048831</v>
+        <v>0.02725763787199043</v>
       </c>
       <c r="I19">
-        <v>0.003612830793786159</v>
+        <v>0.004124216751534071</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3139608072382849</v>
+        <v>0.2748627939795938</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1383602646766739</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.07966868100995228</v>
       </c>
       <c r="N19">
-        <v>0.270557432984404</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8721337935280502</v>
+        <v>0.2767664371208554</v>
       </c>
       <c r="Q19">
-        <v>1.865105529284449</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.9163903018049666</v>
+      </c>
+      <c r="S19">
+        <v>1.683479210845093</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.652374317430883</v>
+        <v>3.480044172596706</v>
       </c>
       <c r="C20">
-        <v>0.6280976626925678</v>
+        <v>0.6710512725446165</v>
       </c>
       <c r="D20">
-        <v>0.06368088312664355</v>
+        <v>0.07073993171498927</v>
       </c>
       <c r="E20">
-        <v>0.07935534098130503</v>
+        <v>0.0749777961932967</v>
       </c>
       <c r="F20">
-        <v>0.7719371317787562</v>
+        <v>0.6957181011408409</v>
       </c>
       <c r="G20">
-        <v>0.0007869549927843216</v>
+        <v>0.003682845216514963</v>
       </c>
       <c r="H20">
-        <v>0.002448404678157878</v>
+        <v>0.002439835517676681</v>
       </c>
       <c r="I20">
-        <v>0.004662121414895637</v>
+        <v>0.005002820041865697</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3712595192325239</v>
+        <v>0.3168994250457047</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1519692964816564</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.09853827528019821</v>
       </c>
       <c r="N20">
-        <v>0.4729953168059211</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.80527312618959</v>
+        <v>0.4810119779410655</v>
       </c>
       <c r="Q20">
-        <v>2.190775695132089</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.8579962392039562</v>
+      </c>
+      <c r="S20">
+        <v>1.933320984570088</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.12547890334514</v>
+        <v>3.809387428141008</v>
       </c>
       <c r="C21">
-        <v>0.6890407126655589</v>
+        <v>0.6917800903893863</v>
       </c>
       <c r="D21">
-        <v>0.06933789639200683</v>
+        <v>0.08601710469342549</v>
       </c>
       <c r="E21">
-        <v>0.08698585815392335</v>
+        <v>0.08307442992229142</v>
       </c>
       <c r="F21">
-        <v>0.8519179617323971</v>
+        <v>0.6928069996693011</v>
       </c>
       <c r="G21">
-        <v>0.0007829565765189548</v>
+        <v>0.06562553340982902</v>
       </c>
       <c r="H21">
-        <v>0.004269680958486122</v>
+        <v>0.003773150022739036</v>
       </c>
       <c r="I21">
-        <v>0.006869282466493765</v>
+        <v>0.006499926992205474</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3885986461608866</v>
+        <v>0.2987326723535588</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.139192705322376</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1000545107425062</v>
       </c>
       <c r="N21">
-        <v>0.5460545286279768</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.7955460327105541</v>
+        <v>0.547063406361886</v>
       </c>
       <c r="Q21">
-        <v>2.391652830426551</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.9053246821661958</v>
+      </c>
+      <c r="S21">
+        <v>1.862409577525227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.430269253624488</v>
+        <v>4.011949654787088</v>
       </c>
       <c r="C22">
-        <v>0.729599066205509</v>
+        <v>0.7033641219237268</v>
       </c>
       <c r="D22">
-        <v>0.07324147955035443</v>
+        <v>0.0971775967265387</v>
       </c>
       <c r="E22">
-        <v>0.09062343320388955</v>
+        <v>0.0874984671361414</v>
       </c>
       <c r="F22">
-        <v>0.9029823850422929</v>
+        <v>0.6855695143693765</v>
       </c>
       <c r="G22">
-        <v>0.0007804257632032178</v>
+        <v>0.1554656847437954</v>
       </c>
       <c r="H22">
-        <v>0.005726880195387252</v>
+        <v>0.00481180459601388</v>
       </c>
       <c r="I22">
-        <v>0.008290082179715164</v>
+        <v>0.007260340404739551</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3990841232074942</v>
+        <v>0.284849926249084</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1307254218493945</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1000868139104902</v>
       </c>
       <c r="N22">
-        <v>0.58341052692289</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.7912946093213193</v>
+        <v>0.5791221411852661</v>
       </c>
       <c r="Q22">
-        <v>2.518473358633656</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.9439700800571131</v>
+      </c>
+      <c r="S22">
+        <v>1.799883028793602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.272403503397754</v>
+        <v>3.921137653965843</v>
       </c>
       <c r="C23">
-        <v>0.7060440560591132</v>
+        <v>0.7003600579596139</v>
       </c>
       <c r="D23">
-        <v>0.07098761271284104</v>
+        <v>0.09001358629659251</v>
       </c>
       <c r="E23">
-        <v>0.08882864443569005</v>
+        <v>0.08497608954023406</v>
       </c>
       <c r="F23">
-        <v>0.8775217463165745</v>
+        <v>0.698961719423778</v>
       </c>
       <c r="G23">
-        <v>0.0007817560656201905</v>
+        <v>0.08929433499311301</v>
       </c>
       <c r="H23">
-        <v>0.004934265028028739</v>
+        <v>0.004270256196253541</v>
       </c>
       <c r="I23">
-        <v>0.00724068705560299</v>
+        <v>0.006537302891866048</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3948944621048298</v>
+        <v>0.2965431840318082</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1366165453003134</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1019005434029374</v>
       </c>
       <c r="N23">
-        <v>0.5632073527312684</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.7920350419075532</v>
+        <v>0.5626055154077108</v>
       </c>
       <c r="Q23">
-        <v>2.456888864199072</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.9159890854877801</v>
+      </c>
+      <c r="S23">
+        <v>1.86429664914732</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.666557585734324</v>
+        <v>3.493737363428977</v>
       </c>
       <c r="C24">
-        <v>0.6203531967560139</v>
+        <v>0.6636585039449301</v>
       </c>
       <c r="D24">
-        <v>0.06273948124729145</v>
+        <v>0.06969363665232464</v>
       </c>
       <c r="E24">
-        <v>0.08179519641794286</v>
+        <v>0.0772049885843753</v>
       </c>
       <c r="F24">
-        <v>0.7798661383396137</v>
+        <v>0.7034545507026166</v>
       </c>
       <c r="G24">
-        <v>0.0007869267061234586</v>
+        <v>0.003524813274083272</v>
       </c>
       <c r="H24">
-        <v>0.002414469620962589</v>
+        <v>0.002405194852402648</v>
       </c>
       <c r="I24">
-        <v>0.004234934830036785</v>
+        <v>0.004474692207164566</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3774968417870355</v>
+        <v>0.3224040998325499</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1540850099330875</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1005664307599901</v>
       </c>
       <c r="N24">
-        <v>0.4873466755100679</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.7987346635223105</v>
+        <v>0.4956081693974426</v>
       </c>
       <c r="Q24">
-        <v>2.218634133371665</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.8503181210485735</v>
+      </c>
+      <c r="S24">
+        <v>1.960091643812035</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.01252247092566</v>
+        <v>2.890636706512282</v>
       </c>
       <c r="C25">
-        <v>0.5285541843135775</v>
+        <v>0.5656234064862531</v>
       </c>
       <c r="D25">
-        <v>0.0538462277238736</v>
+        <v>0.05797865856341389</v>
       </c>
       <c r="E25">
-        <v>0.07418946678090421</v>
+        <v>0.07157082716632246</v>
       </c>
       <c r="F25">
-        <v>0.6780259633329706</v>
+        <v>0.6201201169218038</v>
       </c>
       <c r="G25">
-        <v>0.0007927437320862097</v>
+        <v>0.0007606675985307731</v>
       </c>
       <c r="H25">
-        <v>0.0006451500150908007</v>
+        <v>0.0008165472890033776</v>
       </c>
       <c r="I25">
-        <v>0.002069685939470212</v>
+        <v>0.002606968181225966</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3603600220071286</v>
+        <v>0.3145306611415712</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1610129784551582</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.08583748574659467</v>
       </c>
       <c r="N25">
-        <v>0.4058964684084714</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8088715200375844</v>
+        <v>0.4141671518021752</v>
       </c>
       <c r="Q25">
-        <v>1.971879910419375</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8366555856964339</v>
+      </c>
+      <c r="S25">
+        <v>1.771016774078959</v>
       </c>
     </row>
   </sheetData>
